--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1515926.334441363</v>
+        <v>1537685.557554834</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17316772.40006199</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484461</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6510719.922888241</v>
+        <v>6616204.920400011</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>261.9440415638159</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -668,10 +668,10 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>289.2825255381535</v>
       </c>
       <c r="X2" t="n">
-        <v>411.5885564090705</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -750,7 +750,7 @@
         <v>82.55</v>
       </c>
       <c r="G3" t="n">
-        <v>35.21674468477794</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
         <v>41.31829566194965</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>33.86498684585386</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>50.86172539162403</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -880,7 +880,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,16 +896,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>332.4291174559658</v>
+        <v>421.0520209383079</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201039</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201039</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +990,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
-        <v>41.3182956619479</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1063,7 +1063,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>55.26522771133341</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>143.3888481806905</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>61.37033924555255</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1145,13 +1145,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>287.0790000802538</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>159.5828560759984</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>29.70477936198225</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1528,7 +1528,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888207</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>30.1174008411136</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1768,7 +1768,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>50.05924486566822</v>
+        <v>20.56754178381327</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170556</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170425</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>18.05677735225723</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2533,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>56.72042565247631</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>421.6239533009272</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.3484266092794</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.1380654981684</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.1761338157528</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>285.8262315320844</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.40273359886989</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4539333765603</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.2174581770218</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.3942785639455</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.5384173073509</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>403.7906409842116</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.4234729224758</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>37.45496350626989</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>167.6478022326386</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.0905310873977</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.79102160255036</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S37" t="n">
-        <v>157.2363335358518</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.0080304781978</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.2360492602942</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>268.8935188904399</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.5252156407902</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.7328524999013</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.3484266092796</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D38" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.0243759141564</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.176133815753</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9712315838374</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.40273359887</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5781590863804</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.4878110526659</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.423472922476</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.8065913913612</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6478022326388</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.52736201873</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S40" t="n">
-        <v>26.24351759540741</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.2360492602944</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6733315691425</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.3484266092796</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>158.0472453424446</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.176133815753</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9712315838374</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.40273359887</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5781590863804</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W41" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.4878110526659</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.423472922476</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8065913913612</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6478022326388</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.52736201873</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.36072825394005</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>214.1188386017616</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6733315691425</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.3484266092796</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.0243759141564</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.176133815753</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9712315838374</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>28.87953640371856</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5781590863804</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4878110526659</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.423472922476</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>163.8065913913612</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6478022326388</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.52736201873</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>26.24351759540741</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.2360492602944</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6733315691425</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152.8766897985987</v>
+        <v>959.3315093046215</v>
       </c>
       <c r="C2" t="n">
-        <v>118.774621022426</v>
+        <v>925.2294405284488</v>
       </c>
       <c r="D2" t="n">
-        <v>86.90524023727461</v>
+        <v>893.3600597432974</v>
       </c>
       <c r="E2" t="n">
-        <v>57.17089943597384</v>
+        <v>863.6257189419966</v>
       </c>
       <c r="F2" t="n">
-        <v>33.34387388558564</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G2" t="n">
-        <v>33.34387388558564</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.34387388558564</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
-        <v>32.92708451272564</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>440.3997553577054</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>662.2548191932659</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>662.2548191932659</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>662.2548191932659</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>662.2548191932659</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>662.2548191932659</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1069.727490038246</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1477.200160883225</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>1646.354225636282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1646.354225636282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1646.354225636282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1646.354225636282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1646.354225636282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1241.498771047315</v>
+        <v>1404.978858829757</v>
       </c>
       <c r="X2" t="n">
-        <v>825.7527544724967</v>
+        <v>1389.876799449472</v>
       </c>
       <c r="Y2" t="n">
-        <v>417.4666307721501</v>
+        <v>981.5906757491252</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>489.2862091487659</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>382.8297479854082</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>287.7394591319614</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>193.6190444589151</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>110.2352060750768</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>74.66273669651318</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>32.92708451272564</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>58.99075767318324</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>383.5490826393956</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>791.0217534843754</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>791.0217534843754</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>791.0217534843754</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>791.0217534843754</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>791.0217534843754</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1121.708776696962</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1529.181447541942</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>1646.354225636282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>1582.898788084665</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>1452.720144415267</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>1276.383597415235</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>1077.266079477234</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>891.9433252104284</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>737.0758894493083</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>610.5901102285291</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>422.7422690215377</v>
+        <v>632.348846104353</v>
       </c>
       <c r="C4" t="n">
-        <v>250.1805575047626</v>
+        <v>598.1417886842986</v>
       </c>
       <c r="D4" t="n">
-        <v>84.30256470628527</v>
+        <v>432.2637958858213</v>
       </c>
       <c r="E4" t="n">
-        <v>84.30256470628527</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="F4" t="n">
-        <v>32.92708451272564</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G4" t="n">
-        <v>32.92708451272564</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>32.92708451272564</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
-        <v>32.92708451272564</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>32.92708451272564</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>307.6855390838613</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>715.1582099288411</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>715.1582099288411</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N4" t="n">
-        <v>891.3746608209606</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O4" t="n">
-        <v>1298.84733166594</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1646.354225636282</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
-        <v>1646.354225636282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1646.354225636282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1646.354225636282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1646.354225636282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1646.354225636282</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V4" t="n">
-        <v>1359.398717506713</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="W4" t="n">
-        <v>1087.372313093004</v>
+        <v>859.7685167902448</v>
       </c>
       <c r="X4" t="n">
-        <v>841.9805584264166</v>
+        <v>859.7685167902448</v>
       </c>
       <c r="Y4" t="n">
-        <v>614.5608877405248</v>
+        <v>632.348846104353</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047121</v>
+        <v>561.5849947540341</v>
       </c>
       <c r="C5" t="n">
-        <v>1318.974446717863</v>
+        <v>136.2799230991776</v>
       </c>
       <c r="D5" t="n">
-        <v>890.3927724551318</v>
+        <v>104.4105423140262</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>74.67620151272541</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160831</v>
+        <v>50.8491759623372</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160831</v>
+        <v>50.8491759623372</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160831</v>
+        <v>50.8491759623372</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160831</v>
+        <v>50.4323865894772</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465111</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465111</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465111</v>
+        <v>1181.865694717428</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465111</v>
+        <v>1181.865694717428</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465111</v>
+        <v>1181.865694717428</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375528</v>
+        <v>1181.865694717428</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382456</v>
+        <v>1805.966478762208</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.029365327359</v>
+        <v>2352.465264720803</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080416</v>
+        <v>2521.61932947386</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080416</v>
+        <v>2437.967455657697</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080416</v>
+        <v>2437.967455657697</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080416</v>
+        <v>2178.745152974714</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080416</v>
+        <v>1816.128202908541</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531853</v>
+        <v>1411.272748319574</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.266320151568</v>
+        <v>992.1302848988845</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491625</v>
+        <v>583.8441611985379</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135928994</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295416</v>
+        <v>450.1476704174123</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760949</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030486</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192102</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539407</v>
+        <v>92.16803877326473</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160831</v>
+        <v>50.4323865894772</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206591</v>
+        <v>76.4960597499348</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731811</v>
+        <v>1025.155168760928</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041173</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041173</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041173</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041173</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041173</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986076</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080416</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.727992528798</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.5493488594</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.212801859368</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.095283921368</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545618</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934417</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726625</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>807.508379929692</v>
+        <v>614.4535569886725</v>
       </c>
       <c r="C7" t="n">
-        <v>634.9466684129169</v>
+        <v>441.8918454718975</v>
       </c>
       <c r="D7" t="n">
-        <v>469.0686756144395</v>
+        <v>276.0138526734202</v>
       </c>
       <c r="E7" t="n">
-        <v>299.3106718651768</v>
+        <v>106.2558489241574</v>
       </c>
       <c r="F7" t="n">
-        <v>122.603617826933</v>
+        <v>50.4323865894772</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>50.4323865894772</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>50.4323865894772</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160831</v>
+        <v>50.4323865894772</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.0120717541671</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374337</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053948</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053948</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842924</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110074</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080416</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080416</v>
+        <v>2521.61932947386</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080416</v>
+        <v>2521.61932947386</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080416</v>
+        <v>2362.377960771857</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080416</v>
+        <v>2116.498514350312</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080416</v>
+        <v>1838.065513603417</v>
       </c>
       <c r="V7" t="n">
-        <v>1552.34620969588</v>
+        <v>1551.110005473847</v>
       </c>
       <c r="W7" t="n">
-        <v>1280.319805282171</v>
+        <v>1279.083601060139</v>
       </c>
       <c r="X7" t="n">
-        <v>1034.928050615584</v>
+        <v>1033.691846393551</v>
       </c>
       <c r="Y7" t="n">
-        <v>807.508379929692</v>
+        <v>806.2721757076597</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>893.9996686250441</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>859.8975998488716</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>797.9073581866973</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>1107.976466382457</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>1107.976466382457</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>1107.976466382457</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1407.204642120565</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>988.0621786998757</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>579.7760549995292</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>195.1384727187784</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1418.750429333523</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1131.794921203953</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>859.7685167902448</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>614.3767621236573</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>386.9570914377655</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.314042074141</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.171569257564</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.261784432008</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.487039590304</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6196099995113</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2217786227752</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H11" t="n">
-        <v>97.09162406599148</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I11" t="n">
-        <v>96.67483469313149</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9295221460494</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.279814104227</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.339780357087</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.339780357087</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2441.339780357087</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3421.519446927393</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4249.829321760789</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4796.328107719384</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4833.741734656574</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4833.741734656574</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4803.736907018208</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.514604335224</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.897654269051</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.042199680084</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.899736259395</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.613612559048</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.8465796844242</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.3901185210665</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.2998296676198</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.1794149945735</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.7955766107351</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.410486876919</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.67483469313149</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7385078535891</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.2968328198014</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.741818077601</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.91459617194</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.459158620323</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.280514950925</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.943967950893</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.826450012893</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.503695746087</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6362599849666</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.1504807641874</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.1708717700627</v>
+        <v>811.7546776883923</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6091602532877</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>608.7311674548104</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>438.9731637055477</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>262.2661096673038</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>96.67483469313149</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>96.67483469313149</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.67483469313149</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.2545198578213</v>
+        <v>188.8405254354704</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0129744289569</v>
+        <v>463.5989800066059</v>
       </c>
       <c r="L13" t="n">
-        <v>876.222856196918</v>
+        <v>881.808861774567</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.706723377831</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.965526535475</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.634775761257</v>
+        <v>2203.220781338906</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.141669731599</v>
+        <v>2550.727675309248</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.095275553246</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.215829131701</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.782828384807</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.827320255238</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.800915841529</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.409161174942</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.98949048905</v>
+        <v>1003.57329640738</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.897252701281</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.754779884704</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.844995059148</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.070250217444</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2028206266514</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8049892499153</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>96.67483469313149</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.67483469313149</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9295221460494</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.279814104227</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.339780357087</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.339780357087</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.339780357087</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.519446927393</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4249.829321760789</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4796.328107719384</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>4833.741734656574</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4833.741734656574</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4803.320117645348</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.097814962364</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.480864896191</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.625410307224</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.482946886535</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.196823186188</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.8465796844242</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.3901185210665</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.2998296676198</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.1794149945735</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.7955766107351</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.410486876919</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.67483469313149</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7385078535891</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>447.2968328198014</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.741818077601</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.91459617194</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.459158620323</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.280514950925</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.943967950893</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.826450012893</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.503695746087</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6362599849666</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.1504807641874</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.1686721107436</v>
+        <v>1036.216302815308</v>
       </c>
       <c r="C16" t="n">
-        <v>633.6069605939686</v>
+        <v>863.6545912985331</v>
       </c>
       <c r="D16" t="n">
-        <v>583.0420667902634</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>413.2840630410008</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>236.577009002757</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>236.577009002757</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H16" t="n">
-        <v>96.67483469313149</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.67483469313149</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.2545198578214</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.012974428957</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.222856196918</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.706723377831</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.965526535475</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.634775761257</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.141669731599</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.334444595931</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.093075893928</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.213629472383</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.780628725488</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.825120595918</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.79871618221</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.406961515622</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y16" t="n">
-        <v>997.9872908297307</v>
+        <v>1228.034921534295</v>
       </c>
     </row>
     <row r="17">
@@ -5522,28 +5522,28 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912873</v>
@@ -5552,7 +5552,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
@@ -5592,22 +5592,22 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883926</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716176</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>473.3149733731403</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>303.5569696238775</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>126.8499155856337</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5674,10 +5674,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
         <v>1341.292728955479</v>
@@ -5701,22 +5701,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050032</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303137</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759859</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.992967093272</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.57329640738</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5762,19 +5762,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5795,7 +5795,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883913</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716163</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856324</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5908,13 +5908,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
         <v>1341.292728955479</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407378</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
         <v>1654.847790009657</v>
@@ -5975,10 +5975,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H23" t="n">
         <v>102.6776296436396</v>
@@ -5987,52 +5987,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6069,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1674.355297099902</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.996046390395</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C25" t="n">
-        <v>798.4343348736199</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D25" t="n">
-        <v>632.5563420751425</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E25" t="n">
-        <v>462.7983383258797</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F25" t="n">
-        <v>286.091284287636</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G25" t="n">
-        <v>120.5000093134637</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461861</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795274</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109382</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>557.2627364873769</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M26" t="n">
-        <v>3603.973621145286</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N26" t="n">
-        <v>3603.973621145286</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O26" t="n">
-        <v>3603.973621145286</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6400,7 +6400,7 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>2550.727675309246</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
         <v>2718.920450173579</v>
@@ -6464,16 +6464,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>1286.300469346935</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.300469346935</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2443.348304557486</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
         <v>3569.079287993933</v>
@@ -6543,25 +6543,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6710,22 +6710,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
         <v>4809.322912595856</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6756,16 +6756,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
         <v>143.9964924545671</v>
@@ -6780,25 +6780,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6835,13 +6835,13 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
         <v>267.852115244952</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2525.854933458239</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2088.129250014522</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.636254561827</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1219.278299092982</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>791.8276588750499</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>390.8466168711739</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.133251687251</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>768.6441328923871</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1843.704099145246</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3000.751934355797</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4126.482917792244</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5106.662584362551</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5106.662584362551</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5106.662584362551</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5106.662584362551</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4803.777062165146</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4544.971548855023</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4182.771388161709</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3778.332722945603</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3359.607048897773</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2951.737714570287</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.1969248477086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>452.755249813921</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K36" t="n">
-        <v>1133.488769884298</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L36" t="n">
-        <v>1133.488769884298</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.488769884298</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N36" t="n">
-        <v>1133.488769884298</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O36" t="n">
-        <v>1133.488769884298</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P36" t="n">
-        <v>1133.488769884298</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q36" t="n">
-        <v>1674.227708516374</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>797.2283342806975</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>625.0834121367825</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>587.2501156658028</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>417.9089012894001</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>241.6186366240164</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>241.6186366240164</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>464.2883819517568</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>882.906758984058</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2205.544164341418</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2553.4595535761</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2722.060823704772</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2701.059791783004</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S37" t="n">
-        <v>2542.235212453861</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2296.772555405176</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2018.756344031141</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1732.217625274432</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1460.608010233584</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1215.633044939856</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>988.6301636268245</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.854933458239</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.129250014523</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>791.8276588750505</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.133251687251</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>102.133251687251</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.19321794011</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2334.241053150661</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3459.972036587108</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>4440.151703157415</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4440.151703157415</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4937.508519609495</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.971548855024</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.77138816171</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3778.332722945603</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.607048897774</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.737714570287</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.1969248477086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>426.7277763692675</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.5453418998825</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>778.4004197559675</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>612.9392163303501</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>443.5980019539472</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>267.3077372885634</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.1214321162809</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.2883819517565</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>882.9067589840578</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.79912142931</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.466419851295</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2722.060823704771</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S40" t="n">
-        <v>2695.552220073047</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2450.089563024362</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2172.073351650327</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1885.534632893617</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.925017852769</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1368.950052559042</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1141.94717124601</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2246.554654575833</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1808.828971132116</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1373.33597567942</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1213.692293515335</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>786.2416532974028</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>385.2606112935267</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>96.5472461096029</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>96.5472461096029</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>96.5472461096029</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>930.8975380677808</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2005.95750432064</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>3163.005339531191</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>4288.736322967638</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>4827.362305480145</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4827.362305480145</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4827.362305480145</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>4827.362305480145</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4744.127221036842</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4524.47678328274</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4265.671269972617</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>3903.471109279303</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3499.032444063197</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3080.306770015367</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2672.437435687881</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>602.7189911008957</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>496.262529937538</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>401.1722410840912</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>307.0518264110449</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>223.6679880272065</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>138.2828982933904</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>96.5472461096029</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>122.6109192700605</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>447.1692442362728</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1642.614229494072</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1759.787007588412</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1696.331570036795</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1566.152926367397</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1389.816379367365</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1190.698861429364</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1005.376107162558</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>850.5086714014381</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>724.0228921806588</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1033.202496174699</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>861.0575740307839</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>695.5963706051666</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>526.2551562287638</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>349.96489156338</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>184.7904059620676</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>184.7904059620676</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>96.5472461096029</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>183.5354265386328</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>458.7023763741084</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>877.3207534064096</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1337.213115851662</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1779.880414273647</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2199.958158763769</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2547.873547998451</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2716.474818127123</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2716.474818127123</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2716.474818127123</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2471.012161078438</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2254.730505925143</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1968.191787168434</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1696.582172127585</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1451.607206833858</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1224.604325520826</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2520.268927880592</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2082.543244436876</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1647.05024898418</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1213.692293515335</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>786.241653297403</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>385.2606112935267</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>96.5472461096029</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.5472461096029</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>96.5472461096029</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>489.3438540099811</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1564.40382026284</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2721.451655473391</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>3847.182638909838</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>4827.362305480145</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4827.362305480145</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4827.362305480145</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4827.362305480145</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4827.362305480145</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4798.1910565875</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4539.385543277376</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4177.185382584063</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3772.746717367956</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3354.021043320126</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2946.15170899264</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.7189911008957</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.262529937538</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.1722410840912</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.0518264110449</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.6679880272065</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.2828982933904</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.5472461096029</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>96.5472461096029</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>96.5472461096029</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>96.5472461096029</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1051.090294920707</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1051.090294920707</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1051.090294920707</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1759.787007588412</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1759.787007588412</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1759.787007588412</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.787007588412</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.331570036795</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.152926367397</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1389.816379367365</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.698861429364</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.376107162558</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.5086714014381</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.0228921806588</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>944.9593363222342</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>772.8144141783191</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>607.3532107527019</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>438.0119963762991</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>261.7217317109153</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>96.5472461096029</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>96.5472461096029</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.5472461096029</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.5354265386328</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.7023763741084</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>877.3207534064096</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1337.213115851662</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1779.880414273647</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2199.958158763769</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2547.873547998451</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2716.474818127123</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2716.474818127123</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2689.966214495398</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2444.503557446713</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2166.487346072679</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1879.948627315969</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1608.33901227512</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1363.364046981393</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1136.361165668361</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>411.5885564090705</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>224.0960240763237</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
-        <v>411.5885564090705</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
-        <v>411.5885564090704</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,7 +8058,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>411.5885564090706</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
-        <v>334.0272961743303</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>411.5885564090706</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>411.5885564090705</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>177.996415042545</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>411.5885564090705</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201039</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684649</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611382</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798402</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201039</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201039</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201039</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888807</v>
+        <v>30.91440664741731</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201039</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,10 +8380,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>117.6925219988865</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.94960388476329</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>37.7915423607983</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>37.7915423607983</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,10 +9170,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>301.5463146682409</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>801.4298400828725</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,19 +10112,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>756.3484258820585</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10191,10 +10191,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10428,10 +10428,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>673.2433143486223</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1233.847129715411</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10683,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>92.06596429261231</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>502.3806226788693</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10899,10 +10899,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>301.5463146682413</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11066,22 +11066,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>544.0666490025324</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>396.7642504044225</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,16 +11370,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>715.8552653209144</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>188.1617754937095</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>139.5921776627252</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>187.7491540145782</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>114.1599680048243</v>
+        <v>143.6516710866792</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.592177662725</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627264</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.446375214272</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>227.3655273957975</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>126.3516278850912</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.5227407452991</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.36072825393994</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.0905310873979</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.36072825394005</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.79102160255047</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S40" t="n">
-        <v>130.9928159404445</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25634,7 +25634,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>270.9771305717118</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0905310873979</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.79102160255047</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.2363335358519</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>61.11721065853271</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.40273359887</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>188.5743969728418</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0905310873979</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.36072825394005</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.79102160255047</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>130.9928159404445</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>530120.5399425877</v>
+        <v>531589.7606641769</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>531589.7606641769</v>
+        <v>548499.5238952108</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>531589.7606641769</v>
+        <v>551544.1639564447</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>557868.4628291483</v>
+        <v>581682.8111612974</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>557868.4628291482</v>
+        <v>581682.8111612974</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>581682.8111612973</v>
+        <v>581682.8111612974</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>581794.7605976202</v>
+        <v>581682.8111612974</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>581794.7605976202</v>
+        <v>581682.8111612974</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>557980.4122654709</v>
+        <v>581682.8111612974</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>557980.4122654709</v>
+        <v>581682.8111612974</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26314,19 @@
         <v>455725.2219068473</v>
       </c>
       <c r="C2" t="n">
-        <v>455725.2219068471</v>
+        <v>455725.2219068472</v>
       </c>
       <c r="D2" t="n">
         <v>455725.2219068471</v>
       </c>
       <c r="E2" t="n">
-        <v>429494.6338622674</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="F2" t="n">
-        <v>429494.6338622676</v>
+        <v>447828.9465167494</v>
       </c>
       <c r="G2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="H2" t="n">
         <v>447828.9465167494</v>
@@ -26341,19 +26341,19 @@
         <v>447828.9465167496</v>
       </c>
       <c r="L2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="M2" t="n">
-        <v>448029.6259304066</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="N2" t="n">
-        <v>448029.6259304065</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="O2" t="n">
-        <v>429695.3132759244</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="P2" t="n">
-        <v>429695.3132759244</v>
+        <v>447828.9465167496</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137932.7917894769</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>4105.35648715011</v>
+        <v>66587.76789501664</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998231</v>
       </c>
       <c r="E3" t="n">
-        <v>234126.826365935</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19138.00423437113</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>107689.6762530948</v>
+        <v>111014.4653449903</v>
       </c>
       <c r="K3" t="n">
-        <v>3270.452672344434</v>
+        <v>53045.85463877289</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726621939</v>
       </c>
       <c r="M3" t="n">
-        <v>195343.3712995836</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220854.5012386411</v>
+        <v>218225.2660325691</v>
       </c>
       <c r="C4" t="n">
-        <v>218225.2660325692</v>
+        <v>187964.4997909367</v>
       </c>
       <c r="D4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
-        <v>103882.7595302363</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="F4" t="n">
-        <v>103882.7595302363</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="G4" t="n">
         <v>108317.3178284629</v>
@@ -26448,16 +26448,16 @@
         <v>108317.3178284629</v>
       </c>
       <c r="M4" t="n">
-        <v>108633.0020411373</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="N4" t="n">
-        <v>108633.0020411372</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="O4" t="n">
-        <v>104198.4437429106</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="P4" t="n">
-        <v>104198.4437429106</v>
+        <v>108317.3178284629</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>58652.18422967149</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722231</v>
+        <v>71956.21380800268</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73472.87436677993</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>73472.87436677993</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26497,19 +26497,19 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77655.95995743987</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77655.95995743987</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>73410.59571842728</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73410.59571842728</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38285.74464905783</v>
+        <v>35883.86707734591</v>
       </c>
       <c r="C6" t="n">
-        <v>173969.8112499056</v>
+        <v>129216.7404128911</v>
       </c>
       <c r="D6" t="n">
-        <v>178075.1677370557</v>
+        <v>187469.1195217794</v>
       </c>
       <c r="E6" t="n">
-        <v>18012.17359931621</v>
+        <v>79415.0565220618</v>
       </c>
       <c r="F6" t="n">
-        <v>252138.9999652514</v>
+        <v>261770.1657431113</v>
       </c>
       <c r="G6" t="n">
-        <v>242655.3858481229</v>
+        <v>261770.1657431114</v>
       </c>
       <c r="H6" t="n">
-        <v>261793.390082494</v>
+        <v>261770.1657431114</v>
       </c>
       <c r="I6" t="n">
-        <v>261793.3900824939</v>
+        <v>261770.1657431112</v>
       </c>
       <c r="J6" t="n">
-        <v>154103.7138293993</v>
+        <v>150755.7003981213</v>
       </c>
       <c r="K6" t="n">
-        <v>258522.9374101497</v>
+        <v>208724.3111043386</v>
       </c>
       <c r="L6" t="n">
-        <v>261793.390082494</v>
+        <v>252377.8640164896</v>
       </c>
       <c r="M6" t="n">
-        <v>66397.29263224585</v>
+        <v>109569.9948051239</v>
       </c>
       <c r="N6" t="n">
-        <v>261740.6639318295</v>
+        <v>261770.1657431116</v>
       </c>
       <c r="O6" t="n">
-        <v>252086.2738145865</v>
+        <v>261770.1657431116</v>
       </c>
       <c r="P6" t="n">
-        <v>252086.2738145866</v>
+        <v>261770.1657431115</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>411.5885564090705</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201039</v>
+        <v>630.404832368465</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1208.435433664144</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1208.435433664144</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1206.840576370036</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1206.840576370036</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>411.5885564090705</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>12.70730111103336</v>
+        <v>206.1089748483607</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939192</v>
       </c>
       <c r="E4" t="n">
-        <v>784.1395761440392</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>69.82506972060173</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>411.5885564090705</v>
+        <v>424.2958575201046</v>
       </c>
       <c r="K4" t="n">
-        <v>12.70730111103336</v>
+        <v>206.1089748483607</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939192</v>
       </c>
       <c r="M4" t="n">
-        <v>782.544718849932</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>411.5885564090705</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>12.70730111103336</v>
+        <v>206.1089748483607</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939192</v>
       </c>
       <c r="M4" t="n">
-        <v>784.1395761440392</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>69.82506972060173</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160.0925332162428</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27388,10 +27388,10 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27439,10 +27439,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>111.5243745049235</v>
       </c>
       <c r="X2" t="n">
-        <v>3.362482377411879</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49.31449415170001</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>136.9711075557535</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>124.0782581062373</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,16 +27616,16 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>101.3319306324451</v>
+        <v>12.709027150103</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457196024</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>5.141139873183874</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>119.6747557865279</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -27792,7 +27792,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>140.6971048675834</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>370.1803477317474</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>113.7278999628232</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>11.25323832560895</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -28059,10 +28059,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>8.780300560691974e-13</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.4126214791314773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4126214791313668</v>
+        <v>-4.892427885772319e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>411.5885564090705</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>224.0960240763237</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
-        <v>411.5885564090705</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
-        <v>411.5885564090704</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697542</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>411.5885564090706</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
-        <v>334.0272961743303</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>411.5885564090706</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>411.5885564090705</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>177.996415042545</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>411.5885564090705</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201039</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684649</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611382</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798402</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201039</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201039</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201039</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888807</v>
+        <v>30.91440664741731</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,10 +35033,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201039</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35097,22 +35097,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>117.6925219988865</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.94960388476329</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -35419,7 +35419,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>37.7915423607983</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908063</v>
+        <v>87.45422743908156</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>37.7915423607983</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35890,10 +35890,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>301.5463146682409</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908053</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,7 +36285,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>801.4298400828725</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36768,10 +36768,10 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,19 +36832,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>756.3484258820585</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
@@ -36911,10 +36911,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37148,10 +37148,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>673.2433143486223</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1233.847129715411</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,10 +37403,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>92.06596429261231</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.86684891821214</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.9464139752281</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.5377398436901</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>424.320954030426</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>502.3806226788693</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>301.5463146682413</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.86684891821204</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.9464139752279</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.5377398436897</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1386852747319</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.320954030426</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>544.0666490025324</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.86684891821201</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.9464139752279</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.5377398436897</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1386852747319</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.320954030426</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>396.7642504044225</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,16 +38108,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>715.8552653209144</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.86684891821201</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.9464139752279</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.5377398436897</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1386852747319</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.320954030426</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
